--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,9 +485,184 @@
         <v>33750</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Anas test</v>
+      </c>
+      <c r="B4" t="str">
+        <v>25689432</v>
+      </c>
+      <c r="C4" t="str">
+        <v>116978532135755179843543</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1354</v>
+      </c>
+      <c r="E4" t="str">
+        <v>32135</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G4" t="str">
+        <v>001/DR 1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Anas test</v>
+      </c>
+      <c r="B5" t="str">
+        <v>25689432</v>
+      </c>
+      <c r="C5" t="str">
+        <v>116978532135755179843543</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1354</v>
+      </c>
+      <c r="E5" t="str">
+        <v>32135</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G5" t="str">
+        <v>001/DR 1</v>
+      </c>
+      <c r="H5" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Anas test</v>
+      </c>
+      <c r="B6" t="str">
+        <v>25689432</v>
+      </c>
+      <c r="C6" t="str">
+        <v>116978532135755179843543</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1354</v>
+      </c>
+      <c r="E6" t="str">
+        <v>32135</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G6" t="str">
+        <v>001/DR 1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Anas test</v>
+      </c>
+      <c r="B7" t="str">
+        <v>25689432</v>
+      </c>
+      <c r="C7" t="str">
+        <v>116978532135755179843543</v>
+      </c>
+      <c r="D7" t="str">
+        <v>1354</v>
+      </c>
+      <c r="E7" t="str">
+        <v>32135</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G7" t="str">
+        <v>001/DR 1</v>
+      </c>
+      <c r="H7" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Anas test</v>
+      </c>
+      <c r="B8" t="str">
+        <v>25689432</v>
+      </c>
+      <c r="C8" t="str">
+        <v>116978532135755179843543</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1354</v>
+      </c>
+      <c r="E8" t="str">
+        <v>32135</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G8" t="str">
+        <v>001/DR 1</v>
+      </c>
+      <c r="H8" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>33750</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,252 +417,39 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Anas test</v>
+        <v>Yassine test</v>
       </c>
       <c r="B2" t="str">
-        <v>25689432</v>
+        <v>123</v>
       </c>
       <c r="C2" t="str">
-        <v>116978532135755179843543</v>
+        <v>112354646135431354351432</v>
       </c>
       <c r="D2" t="str">
-        <v>1354</v>
-      </c>
-      <c r="E2" t="str">
-        <v>32135</v>
+        <v>13213</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>001/DR 1</v>
+        <v>001/test DR</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="K2">
-        <v>33750</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Anas test</v>
-      </c>
-      <c r="B3" t="str">
-        <v>25689432</v>
-      </c>
-      <c r="C3" t="str">
-        <v>116978532135755179843543</v>
-      </c>
-      <c r="D3" t="str">
-        <v>1354</v>
-      </c>
-      <c r="E3" t="str">
-        <v>32135</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G3" t="str">
-        <v>001/DR 1</v>
-      </c>
-      <c r="H3" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>33750</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Anas test</v>
-      </c>
-      <c r="B4" t="str">
-        <v>25689432</v>
-      </c>
-      <c r="C4" t="str">
-        <v>116978532135755179843543</v>
-      </c>
-      <c r="D4" t="str">
-        <v>1354</v>
-      </c>
-      <c r="E4" t="str">
-        <v>32135</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G4" t="str">
-        <v>001/DR 1</v>
-      </c>
-      <c r="H4" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>33750</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Anas test</v>
-      </c>
-      <c r="B5" t="str">
-        <v>25689432</v>
-      </c>
-      <c r="C5" t="str">
-        <v>116978532135755179843543</v>
-      </c>
-      <c r="D5" t="str">
-        <v>1354</v>
-      </c>
-      <c r="E5" t="str">
-        <v>32135</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G5" t="str">
-        <v>001/DR 1</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>33750</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Anas test</v>
-      </c>
-      <c r="B6" t="str">
-        <v>25689432</v>
-      </c>
-      <c r="C6" t="str">
-        <v>116978532135755179843543</v>
-      </c>
-      <c r="D6" t="str">
-        <v>1354</v>
-      </c>
-      <c r="E6" t="str">
-        <v>32135</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G6" t="str">
-        <v>001/DR 1</v>
-      </c>
-      <c r="H6" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>33750</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Anas test</v>
-      </c>
-      <c r="B7" t="str">
-        <v>25689432</v>
-      </c>
-      <c r="C7" t="str">
-        <v>116978532135755179843543</v>
-      </c>
-      <c r="D7" t="str">
-        <v>1354</v>
-      </c>
-      <c r="E7" t="str">
-        <v>32135</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G7" t="str">
-        <v>001/DR 1</v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>33750</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Anas test</v>
-      </c>
-      <c r="B8" t="str">
-        <v>25689432</v>
-      </c>
-      <c r="C8" t="str">
-        <v>116978532135755179843543</v>
-      </c>
-      <c r="D8" t="str">
-        <v>1354</v>
-      </c>
-      <c r="E8" t="str">
-        <v>32135</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G8" t="str">
-        <v>001/DR 1</v>
-      </c>
-      <c r="H8" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>33750</v>
+        <v>42500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,39 +417,77 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Yassine test</v>
+        <v>ALI EXPRESSE</v>
       </c>
       <c r="B2" t="str">
-        <v>123</v>
+        <v>DDDD</v>
       </c>
       <c r="C2" t="str">
-        <v>112354646135431354351432</v>
+        <v>114365978523435433246652</v>
       </c>
       <c r="D2" t="str">
-        <v>13213</v>
+        <v>BMCE</v>
+      </c>
+      <c r="E2" t="str">
+        <v>BMCE MAARIF</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>001/test DR</v>
+        <v>001/DR IFRAN</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="J2">
-        <v>7500</v>
+        <v>1200</v>
       </c>
       <c r="K2">
-        <v>42500</v>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>KHALID TAGHMAOUI</v>
+      </c>
+      <c r="B3" t="str">
+        <v>BB132345</v>
+      </c>
+      <c r="C3" t="str">
+        <v>114655862235099841255452</v>
+      </c>
+      <c r="D3" t="str">
+        <v>bmce</v>
+      </c>
+      <c r="E3" t="str">
+        <v>bmce</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G3" t="str">
+        <v>001/DR IFRAN</v>
+      </c>
+      <c r="H3" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I3">
+        <v>9000</v>
+      </c>
+      <c r="J3">
+        <v>900</v>
+      </c>
+      <c r="K3">
+        <v>16200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -441,13 +441,13 @@
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="J2">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K2">
-        <v>10800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="3">
@@ -476,18 +476,53 @@
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="J3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K3">
-        <v>16200</v>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Tawfiq MF</v>
+      </c>
+      <c r="B4" t="str">
+        <v>BB12354</v>
+      </c>
+      <c r="C4" t="str">
+        <v>119349134978532465421354</v>
+      </c>
+      <c r="D4" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="E4" t="str">
+        <v>BMCE test</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Logement de fonction</v>
+      </c>
+      <c r="G4" t="str">
+        <v>001/LF/DR IFRAN</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>10000</v>
+      </c>
+      <c r="J4">
+        <v>700</v>
+      </c>
+      <c r="K4">
+        <v>9300</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -520,9 +520,38 @@
         <v>9300</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>test test</v>
+      </c>
+      <c r="B5" t="str">
+        <v>mdkjhf</v>
+      </c>
+      <c r="C5" t="str">
+        <v>113316497856497978523243</v>
+      </c>
+      <c r="D5" t="str">
+        <v>12121</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>Logement de fonction</v>
+      </c>
+      <c r="G5" t="str">
+        <v>001/LF/DR IFRAN</v>
+      </c>
+      <c r="H5" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,10 +426,10 @@
         <v>114365978523435433246652</v>
       </c>
       <c r="D2" t="str">
+        <v>BMCE MAARIF</v>
+      </c>
+      <c r="E2" t="str">
         <v>BMCE</v>
-      </c>
-      <c r="E2" t="str">
-        <v>BMCE MAARIF</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
@@ -442,12 +442,6 @@
       </c>
       <c r="I2">
         <v>4000</v>
-      </c>
-      <c r="J2">
-        <v>400</v>
-      </c>
-      <c r="K2">
-        <v>3600</v>
       </c>
     </row>
     <row r="3">
@@ -496,10 +490,10 @@
         <v>119349134978532465421354</v>
       </c>
       <c r="D4" t="str">
+        <v>BMCE test</v>
+      </c>
+      <c r="E4" t="str">
         <v>BMCE</v>
-      </c>
-      <c r="E4" t="str">
-        <v>BMCE test</v>
       </c>
       <c r="F4" t="str">
         <v>Logement de fonction</v>
@@ -531,10 +525,10 @@
         <v>113316497856497978523243</v>
       </c>
       <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
         <v>12121</v>
-      </c>
-      <c r="E5" t="str">
-        <v/>
       </c>
       <c r="F5" t="str">
         <v>Logement de fonction</v>
@@ -547,11 +541,81 @@
       </c>
       <c r="I5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Hassan Hssouni</v>
+      </c>
+      <c r="B6" t="str">
+        <v>BJ123456</v>
+      </c>
+      <c r="C6" t="str">
+        <v>116497823245768736541324</v>
+      </c>
+      <c r="D6" t="str">
+        <v>BMCE TARIQ</v>
+      </c>
+      <c r="E6" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G6" t="str">
+        <v>123/Test SUP</v>
+      </c>
+      <c r="H6" t="str">
+        <v>trimestrielle</v>
+      </c>
+      <c r="I6">
+        <v>100000</v>
+      </c>
+      <c r="J6">
+        <v>22500</v>
+      </c>
+      <c r="K6">
+        <v>92500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Amine Kamal</v>
+      </c>
+      <c r="B7" t="str">
+        <v>cd1200</v>
+      </c>
+      <c r="C7" t="str">
+        <v>022232265645652220000000</v>
+      </c>
+      <c r="D7" t="str">
+        <v>almoqawama</v>
+      </c>
+      <c r="E7" t="str">
+        <v>bmce</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G7" t="str">
+        <v>002/DR002</v>
+      </c>
+      <c r="H7" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I7">
+        <v>40000</v>
+      </c>
+      <c r="J7">
+        <v>3000</v>
+      </c>
+      <c r="K7">
+        <v>37000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,205 +417,42 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ALI EXPRESSE</v>
+        <v>Ahmed Taoufiq</v>
       </c>
       <c r="B2" t="str">
-        <v>DDDD</v>
+        <v>BB196497</v>
       </c>
       <c r="C2" t="str">
-        <v>114365978523435433246652</v>
+        <v>114379134964978564311346</v>
       </c>
       <c r="D2" t="str">
-        <v>BMCE MAARIF</v>
+        <v>CIH TEST</v>
       </c>
       <c r="E2" t="str">
-        <v>BMCE</v>
+        <v>CIH</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>001/DR IFRAN</v>
+        <v>001/LF/DR01</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
+        <v>50000</v>
+      </c>
+      <c r="J2">
         <v>4000</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>KHALID TAGHMAOUI</v>
-      </c>
-      <c r="B3" t="str">
-        <v>BB132345</v>
-      </c>
-      <c r="C3" t="str">
-        <v>114655862235099841255452</v>
-      </c>
-      <c r="D3" t="str">
-        <v>bmce</v>
-      </c>
-      <c r="E3" t="str">
-        <v>bmce</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G3" t="str">
-        <v>001/DR IFRAN</v>
-      </c>
-      <c r="H3" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I3">
-        <v>6000</v>
-      </c>
-      <c r="J3">
-        <v>600</v>
-      </c>
-      <c r="K3">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Tawfiq MF</v>
-      </c>
-      <c r="B4" t="str">
-        <v>BB12354</v>
-      </c>
-      <c r="C4" t="str">
-        <v>119349134978532465421354</v>
-      </c>
-      <c r="D4" t="str">
-        <v>BMCE test</v>
-      </c>
-      <c r="E4" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Logement de fonction</v>
-      </c>
-      <c r="G4" t="str">
-        <v>001/LF/DR IFRAN</v>
-      </c>
-      <c r="H4" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I4">
-        <v>10000</v>
-      </c>
-      <c r="J4">
-        <v>700</v>
-      </c>
-      <c r="K4">
-        <v>9300</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>test test</v>
-      </c>
-      <c r="B5" t="str">
-        <v>mdkjhf</v>
-      </c>
-      <c r="C5" t="str">
-        <v>113316497856497978523243</v>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v>12121</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Logement de fonction</v>
-      </c>
-      <c r="G5" t="str">
-        <v>001/LF/DR IFRAN</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Hassan Hssouni</v>
-      </c>
-      <c r="B6" t="str">
-        <v>BJ123456</v>
-      </c>
-      <c r="C6" t="str">
-        <v>116497823245768736541324</v>
-      </c>
-      <c r="D6" t="str">
-        <v>BMCE TARIQ</v>
-      </c>
-      <c r="E6" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G6" t="str">
-        <v>123/Test SUP</v>
-      </c>
-      <c r="H6" t="str">
-        <v>trimestrielle</v>
-      </c>
-      <c r="I6">
-        <v>100000</v>
-      </c>
-      <c r="J6">
-        <v>22500</v>
-      </c>
-      <c r="K6">
-        <v>92500</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Amine Kamal</v>
-      </c>
-      <c r="B7" t="str">
-        <v>cd1200</v>
-      </c>
-      <c r="C7" t="str">
-        <v>022232265645652220000000</v>
-      </c>
-      <c r="D7" t="str">
-        <v>almoqawama</v>
-      </c>
-      <c r="E7" t="str">
-        <v>bmce</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G7" t="str">
-        <v>002/DR002</v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>40000</v>
-      </c>
-      <c r="J7">
-        <v>3000</v>
-      </c>
-      <c r="K7">
-        <v>37000</v>
+      <c r="K2">
+        <v>46000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,44 +415,9 @@
         <v>MT Net</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Ahmed Taoufiq</v>
-      </c>
-      <c r="B2" t="str">
-        <v>BB196497</v>
-      </c>
-      <c r="C2" t="str">
-        <v>114379134964978564311346</v>
-      </c>
-      <c r="D2" t="str">
-        <v>CIH TEST</v>
-      </c>
-      <c r="E2" t="str">
-        <v>CIH</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G2" t="str">
-        <v>001/LF/DR01</v>
-      </c>
-      <c r="H2" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I2">
-        <v>50000</v>
-      </c>
-      <c r="J2">
-        <v>4000</v>
-      </c>
-      <c r="K2">
-        <v>46000</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -450,9 +450,76 @@
         <v>46000</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>test test</v>
+      </c>
+      <c r="B3" t="str">
+        <v>ba152645</v>
+      </c>
+      <c r="C3" t="str">
+        <v>515416464849151210154546</v>
+      </c>
+      <c r="D3" t="str">
+        <v>aa</v>
+      </c>
+      <c r="E3" t="str">
+        <v>bmc</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G3" t="str">
+        <v>008/dr008</v>
+      </c>
+      <c r="H3" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I3">
+        <v>20000</v>
+      </c>
+      <c r="J3">
+        <v>1500</v>
+      </c>
+      <c r="K3">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Test tsets</v>
+      </c>
+      <c r="B4" t="str">
+        <v>123465</v>
+      </c>
+      <c r="C4" t="str">
+        <v>112323246546543213521321</v>
+      </c>
+      <c r="E4" t="str">
+        <v>123123132</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G4" t="str">
+        <v>008/dr008</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>20000</v>
+      </c>
+      <c r="J4">
+        <v>1500</v>
+      </c>
+      <c r="K4">
+        <v>18500</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
@@ -417,37 +417,37 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SASA SASA</v>
+        <v>STT22</v>
       </c>
       <c r="B2" t="str">
-        <v>L556555</v>
+        <v>654566</v>
       </c>
       <c r="C2" t="str">
-        <v>365464694564694569496449</v>
+        <v>321654161265465131654846</v>
       </c>
       <c r="D2" t="str">
-        <v>RABAT 2</v>
+        <v>AG5</v>
       </c>
       <c r="E2" t="str">
-        <v>BQ</v>
+        <v>BP</v>
       </c>
       <c r="F2" t="str">
-        <v>Siège</v>
+        <v>Point de vente</v>
       </c>
       <c r="G2" t="str">
-        <v>111/WIFAK</v>
+        <v>903/CASA ANFA</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="J2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9900</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -450,9 +450,114 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v xml:space="preserve">KHALID VAVA </v>
+      </c>
+      <c r="B3" t="str">
+        <v>O3546845</v>
+      </c>
+      <c r="C3" t="str">
+        <v>321564613641864613156486</v>
+      </c>
+      <c r="D3" t="str">
+        <v>AG 5</v>
+      </c>
+      <c r="E3" t="str">
+        <v>bmce</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G3" t="str">
+        <v>120/SUP 2</v>
+      </c>
+      <c r="H3" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I3">
+        <v>18000</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>FATIMA FAFA</v>
+      </c>
+      <c r="B4" t="str">
+        <v>L3659652</v>
+      </c>
+      <c r="C4" t="str">
+        <v>246848931356984893231321</v>
+      </c>
+      <c r="D4" t="str">
+        <v>CASA 556</v>
+      </c>
+      <c r="E4" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G4" t="str">
+        <v>120/SUP 2</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>12000</v>
+      </c>
+      <c r="J4">
+        <v>600</v>
+      </c>
+      <c r="K4">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>IMANE FAFA</v>
+      </c>
+      <c r="B5" t="str">
+        <v>K6546841</v>
+      </c>
+      <c r="C5" t="str">
+        <v>313215156145641564165411</v>
+      </c>
+      <c r="D5" t="str">
+        <v>AGG55</v>
+      </c>
+      <c r="E5" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G5" t="str">
+        <v>001/CASA NORD</v>
+      </c>
+      <c r="H5" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I5">
+        <v>48000</v>
+      </c>
+      <c r="J5">
+        <v>5400</v>
+      </c>
+      <c r="K5">
+        <v>42600</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -555,9 +555,114 @@
         <v>42600</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>KHADIJA PAPA</v>
+      </c>
+      <c r="B6" t="str">
+        <v>K2546546</v>
+      </c>
+      <c r="C6" t="str">
+        <v>345646131418647463156165</v>
+      </c>
+      <c r="D6" t="str">
+        <v>RABAT 562</v>
+      </c>
+      <c r="E6" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G6" t="str">
+        <v>800/RABAT AGDAL</v>
+      </c>
+      <c r="H6" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I6">
+        <v>24000</v>
+      </c>
+      <c r="J6">
+        <v>1800</v>
+      </c>
+      <c r="K6">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>JAJA GAGA</v>
+      </c>
+      <c r="B7" t="str">
+        <v>B3541456</v>
+      </c>
+      <c r="C7" t="str">
+        <v>354657464131354681448831</v>
+      </c>
+      <c r="D7" t="str">
+        <v>CASA B2</v>
+      </c>
+      <c r="E7" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Logement de fonction</v>
+      </c>
+      <c r="G7" t="str">
+        <v>800/LF/RABAT AGDAL</v>
+      </c>
+      <c r="H7" t="str">
+        <v>trimestrielle</v>
+      </c>
+      <c r="I7">
+        <v>40000</v>
+      </c>
+      <c r="J7">
+        <v>8400</v>
+      </c>
+      <c r="K7">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>MANAL LALA</v>
+      </c>
+      <c r="B8" t="str">
+        <v>G364861</v>
+      </c>
+      <c r="C8" t="str">
+        <v>134165465131864864135418</v>
+      </c>
+      <c r="D8" t="str">
+        <v>UHIU528</v>
+      </c>
+      <c r="E8" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G8" t="str">
+        <v>622/CASA MEDINA</v>
+      </c>
+      <c r="H8" t="str">
+        <v>annuelle</v>
+      </c>
+      <c r="I8">
+        <v>150000</v>
+      </c>
+      <c r="J8">
+        <v>270000</v>
+      </c>
+      <c r="K8">
+        <v>127500</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,16 +417,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>STT22</v>
+        <v xml:space="preserve">STE LOCATION </v>
       </c>
       <c r="B2" t="str">
-        <v>654566</v>
+        <v>31451</v>
       </c>
       <c r="C2" t="str">
-        <v>321654161265465131654846</v>
+        <v>313156456461638489461313</v>
       </c>
       <c r="D2" t="str">
-        <v>AG5</v>
+        <v>MAARIF</v>
       </c>
       <c r="E2" t="str">
         <v>BP</v>
@@ -435,234 +435,304 @@
         <v>Point de vente</v>
       </c>
       <c r="G2" t="str">
-        <v>903/CASA ANFA</v>
+        <v>512/CASA 2</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve">KHALID VAVA </v>
+        <v xml:space="preserve">STE MAISON </v>
       </c>
       <c r="B3" t="str">
-        <v>O3546845</v>
+        <v>56987</v>
       </c>
       <c r="C3" t="str">
-        <v>321564613641864613156486</v>
+        <v>322656131365484946461313</v>
       </c>
       <c r="D3" t="str">
-        <v>AG 5</v>
+        <v xml:space="preserve">2 MARS </v>
       </c>
       <c r="E3" t="str">
-        <v>bmce</v>
+        <v>BMCE</v>
       </c>
       <c r="F3" t="str">
-        <v>Supervision</v>
+        <v>Point de vente</v>
       </c>
       <c r="G3" t="str">
-        <v>120/SUP 2</v>
+        <v>512/CASA 2</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>FATIMA FAFA</v>
+        <v>STT22</v>
       </c>
       <c r="B4" t="str">
-        <v>L3659652</v>
+        <v>654566</v>
       </c>
       <c r="C4" t="str">
-        <v>246848931356984893231321</v>
+        <v>321654161265465131654846</v>
       </c>
       <c r="D4" t="str">
-        <v>CASA 556</v>
+        <v>AG5</v>
       </c>
       <c r="E4" t="str">
         <v>BP</v>
       </c>
       <c r="F4" t="str">
-        <v>Supervision</v>
+        <v>Point de vente</v>
       </c>
       <c r="G4" t="str">
-        <v>120/SUP 2</v>
+        <v>903/CASA ANFA/AV</v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="J4">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>11400</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>IMANE FAFA</v>
+        <v xml:space="preserve">KHALID VAVA </v>
       </c>
       <c r="B5" t="str">
-        <v>K6546841</v>
+        <v>O3546845</v>
       </c>
       <c r="C5" t="str">
-        <v>313215156145641564165411</v>
+        <v>321564613641864613156486</v>
       </c>
       <c r="D5" t="str">
-        <v>AGG55</v>
+        <v>AG 5</v>
       </c>
       <c r="E5" t="str">
-        <v>BMCE</v>
+        <v>bmce</v>
       </c>
       <c r="F5" t="str">
-        <v>Direction régionale</v>
+        <v>Supervision</v>
       </c>
       <c r="G5" t="str">
-        <v>001/CASA NORD</v>
+        <v>120/SUP 2</v>
       </c>
       <c r="H5" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I5">
-        <v>48000</v>
+        <v>18000</v>
       </c>
       <c r="J5">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>42600</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>KHADIJA PAPA</v>
+        <v>FATIMA FAFA</v>
       </c>
       <c r="B6" t="str">
-        <v>K2546546</v>
+        <v>L3659652</v>
       </c>
       <c r="C6" t="str">
-        <v>345646131418647463156165</v>
+        <v>246848931356984893231321</v>
       </c>
       <c r="D6" t="str">
-        <v>RABAT 562</v>
+        <v>CASA 556</v>
       </c>
       <c r="E6" t="str">
-        <v>BMCE</v>
+        <v>BP</v>
       </c>
       <c r="F6" t="str">
-        <v>Direction régionale</v>
+        <v>Supervision</v>
       </c>
       <c r="G6" t="str">
-        <v>800/RABAT AGDAL</v>
+        <v>120/SUP 2</v>
       </c>
       <c r="H6" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I6">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="J6">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K6">
-        <v>22200</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>JAJA GAGA</v>
+        <v>IMANE FAFA</v>
       </c>
       <c r="B7" t="str">
-        <v>B3541456</v>
+        <v>K6546841</v>
       </c>
       <c r="C7" t="str">
-        <v>354657464131354681448831</v>
+        <v>313215156145641564165411</v>
       </c>
       <c r="D7" t="str">
-        <v>CASA B2</v>
+        <v>AGG55</v>
       </c>
       <c r="E7" t="str">
-        <v>BP</v>
+        <v>BMCE</v>
       </c>
       <c r="F7" t="str">
-        <v>Logement de fonction</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G7" t="str">
-        <v>800/LF/RABAT AGDAL</v>
+        <v>001/CASA NORD</v>
       </c>
       <c r="H7" t="str">
-        <v>trimestrielle</v>
+        <v>mensuelle</v>
       </c>
       <c r="I7">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="J7">
-        <v>8400</v>
+        <v>5400</v>
       </c>
       <c r="K7">
-        <v>37200</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>KHADIJA PAPA</v>
+      </c>
+      <c r="B8" t="str">
+        <v>K2546546</v>
+      </c>
+      <c r="C8" t="str">
+        <v>345646131418647463156165</v>
+      </c>
+      <c r="D8" t="str">
+        <v>RABAT 562</v>
+      </c>
+      <c r="E8" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G8" t="str">
+        <v>800/RABAT AGDAL</v>
+      </c>
+      <c r="H8" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I8">
+        <v>24000</v>
+      </c>
+      <c r="J8">
+        <v>1800</v>
+      </c>
+      <c r="K8">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>JAJA GAGA</v>
+      </c>
+      <c r="B9" t="str">
+        <v>B3541456</v>
+      </c>
+      <c r="C9" t="str">
+        <v>354657464131354681448831</v>
+      </c>
+      <c r="D9" t="str">
+        <v>CASA B2</v>
+      </c>
+      <c r="E9" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Logement de fonction</v>
+      </c>
+      <c r="G9" t="str">
+        <v>800/LF/RABAT AGDAL</v>
+      </c>
+      <c r="H9" t="str">
+        <v>trimestrielle</v>
+      </c>
+      <c r="I9">
+        <v>40000</v>
+      </c>
+      <c r="J9">
+        <v>2800</v>
+      </c>
+      <c r="K9">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
         <v>MANAL LALA</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B10" t="str">
         <v>G364861</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C10" t="str">
         <v>134165465131864864135418</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D10" t="str">
         <v>UHIU528</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E10" t="str">
         <v>BP</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F10" t="str">
         <v>Point de vente</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G10" t="str">
         <v>622/CASA MEDINA</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H10" t="str">
         <v>annuelle</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <v>150000</v>
       </c>
-      <c r="J8">
-        <v>270000</v>
-      </c>
-      <c r="K8">
+      <c r="J10">
+        <v>22500</v>
+      </c>
+      <c r="K10">
         <v>127500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
   </ignoredErrors>
 </worksheet>
 </file>